--- a/src/main/resources/holiday.xlsx
+++ b/src/main/resources/holiday.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\PNS\contract-management\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pns\config\application\contract-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8B35D5-05BE-4E0F-A9EF-6419BE81BB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E964B2C2-3586-44D3-8ECA-4710C9B0EAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="18000" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kolkata" sheetId="1" r:id="rId1"/>
+    <sheet name="Bhubaneswar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +50,9 @@
   </si>
   <si>
     <t>X-mas</t>
+  </si>
+  <si>
+    <t>Jagadhtari Puja</t>
   </si>
 </sst>
 </file>
@@ -367,9 +371,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD8C398-C09C-4D1E-8097-470D59F0B475}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
